--- a/database/LDAP_Atrribute.xlsx
+++ b/database/LDAP_Atrribute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrisl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6494CA15-202E-4B19-9774-EBBF3A37096F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1077D6A-2911-4899-AEED-08E780BAFB6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6885" xr2:uid="{CF543D7C-B9D9-44E7-84D5-2C077B5747C4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>id_prof, userPrincipalName, userPassword,givenName, sn, mail, physicalDeliveryOfficeName, department</t>
+    <t>id_prof,userPrincipalName,givenName,sn,mail,physicalDeliveryOfficeName,department</t>
   </si>
 </sst>
 </file>
